--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -116,9 +116,6 @@
     <t>soft mkt data #curve building, mostly in ibanks</t>
   </si>
   <si>
-    <t>risk sys in big ibanks</t>
-  </si>
-  <si>
     <t>personal accu  
 # depth</t>
   </si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>mkt data,socket…</t>
+  </si>
+  <si>
+    <t>math-light risk sys in big ibanks</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -615,13 +615,13 @@
     <row r="1" spans="2:12" ht="6" customHeight="1"/>
     <row r="2" spans="2:12" ht="72">
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -637,7 +637,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -705,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>11</v>
@@ -735,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -747,7 +747,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -823,19 +823,19 @@
         <v>13</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -848,14 +848,14 @@
         <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -913,7 +913,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
@@ -935,17 +935,17 @@
         <v>13</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -978,11 +978,11 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:12">

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>rare</t>
   </si>
@@ -25,10 +25,6 @@
   </si>
   <si>
     <t>many</t>
-  </si>
-  <si>
-    <t>my strength 
-among candidates</t>
   </si>
   <si>
     <t>low</t>
@@ -56,9 +52,6 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>niche</t>
   </si>
   <si>
@@ -74,9 +67,6 @@
     <t>some</t>
   </si>
   <si>
-    <t>mkt depth below the top jobs</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -95,18 +85,12 @@
     <t>good std skillset</t>
   </si>
   <si>
-    <t>declining</t>
-  </si>
-  <si>
     <t>mostly jargons</t>
   </si>
   <si>
     <t>diverse :(</t>
   </si>
   <si>
-    <t>diverse?</t>
-  </si>
-  <si>
     <t>Regulation-driven</t>
   </si>
   <si>
@@ -114,10 +98,6 @@
   </si>
   <si>
     <t>soft mkt data #curve building, mostly in ibanks</t>
-  </si>
-  <si>
-    <t>personal accu  
-# depth</t>
   </si>
   <si>
     <t>complexity 
@@ -127,9 +107,6 @@
     <t>drv pricing/risk analytics, mostly in ibanks</t>
   </si>
   <si>
-    <t>rare. very low</t>
-  </si>
-  <si>
     <t>not theoretical</t>
   </si>
   <si>
@@ -137,10 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">devops: compiler; make file; scripting; git; </t>
-  </si>
-  <si>
-    <t>mainstream: how many
-jobs now?</t>
   </si>
   <si>
     <t>promising</t>
@@ -150,27 +123,12 @@
 GC</t>
   </si>
   <si>
-    <t>poor. Low MV</t>
-  </si>
-  <si>
     <t>slowly catching on</t>
   </si>
   <si>
     <t>bond math</t>
   </si>
   <si>
-    <t>trade execution, mostly in ibanks</t>
-  </si>
-  <si>
-    <t>OMS #Kenny</t>
-  </si>
-  <si>
-    <t>some complexity, not theoretical</t>
-  </si>
-  <si>
-    <t>too niche</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -186,7 +144,62 @@
     <t>mkt data,socket…</t>
   </si>
   <si>
-    <t>math-light risk sys in big ibanks</t>
+    <t>curve building</t>
+  </si>
+  <si>
+    <t>FIX + connectivity + OMS#Kenny</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>good chance</t>
+  </si>
+  <si>
+    <t>accu # depth</t>
+  </si>
+  <si>
+    <t>too diverse?</t>
+  </si>
+  <si>
+    <t>FIX good</t>
+  </si>
+  <si>
+    <t>mainstream? how many
+jobs now?</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>math-lite risk sys in big ibanks</t>
+  </si>
+  <si>
+    <t>3 self-study</t>
+  </si>
+  <si>
+    <t>reasonable?</t>
+  </si>
+  <si>
+    <t>poor. Lower MV</t>
+  </si>
+  <si>
+    <t>7 #bash/git</t>
+  </si>
+  <si>
+    <t>declining slightly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkt depth </t>
+  </si>
+  <si>
+    <t>my candidacy</t>
+  </si>
+  <si>
+    <t>sometimes complex</t>
   </si>
 </sst>
 </file>
@@ -276,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,6 +300,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -604,406 +629,444 @@
     <col min="5" max="5" width="1" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="37.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="6" customHeight="1"/>
-    <row r="2" spans="2:12" ht="72">
+    <row r="2" spans="2:12" ht="54">
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
+      <c r="H2" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10">
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
-        <v>6</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="36">
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="6" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" ht="36.75" customHeight="1">
-      <c r="B9" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>8</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="6" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="36.75" customHeight="1">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="10">
+        <v>4</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="L16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -206,11 +206,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -218,32 +218,32 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Agency FB"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="13"/>
       <color theme="10"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Agency FB"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -292,26 +292,26 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,457 +616,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1"/>
-    <row r="2" spans="2:12" ht="54">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="3" t="s">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="36">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="6" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="3" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="36.75" customHeight="1">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>8</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="3" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="3" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="10">
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
         <v>4</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,7 +1080,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1092,7 +1092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>rare</t>
   </si>
@@ -39,10 +39,6 @@
     <t>questionable</t>
   </si>
   <si>
-    <t>(LG2) how many  
-candidates</t>
-  </si>
-  <si>
     <t>(LG2) entry barrier</t>
   </si>
   <si>
@@ -91,17 +87,10 @@
     <t>diverse :(</t>
   </si>
   <si>
-    <t>Regulation-driven</t>
-  </si>
-  <si>
     <t>real time risk, mostly in banks</t>
   </si>
   <si>
     <t>soft mkt data #curve building, mostly in ibanks</t>
-  </si>
-  <si>
-    <t>complexity 
-# theoretical</t>
   </si>
   <si>
     <t>drv pricing/risk analytics, mostly in ibanks</t>
@@ -135,18 +124,12 @@
     <t>some but no theoretical</t>
   </si>
   <si>
-    <t>longevity of domain/skill</t>
-  </si>
-  <si>
     <t>growing but niche</t>
   </si>
   <si>
     <t>mkt data,socket…</t>
   </si>
   <si>
-    <t>curve building</t>
-  </si>
-  <si>
     <t>FIX + connectivity + OMS#Kenny</t>
   </si>
   <si>
@@ -168,28 +151,15 @@
     <t>FIX good</t>
   </si>
   <si>
-    <t>mainstream? how many
-jobs now?</t>
-  </si>
-  <si>
     <t>theoretical</t>
   </si>
   <si>
-    <t>math-lite risk sys in big ibanks</t>
-  </si>
-  <si>
     <t>3 self-study</t>
   </si>
   <si>
     <t>reasonable?</t>
   </si>
   <si>
-    <t>poor. Lower MV</t>
-  </si>
-  <si>
-    <t>7 #bash/git</t>
-  </si>
-  <si>
     <t>declining slightly</t>
   </si>
   <si>
@@ -200,6 +170,54 @@
   </si>
   <si>
     <t>sometimes complex</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>%% GTD strength</t>
+  </si>
+  <si>
+    <t>:(</t>
+  </si>
+  <si>
+    <t>risk sys in big ibanks #maybe math-lite</t>
+  </si>
+  <si>
+    <t>java, SQL(?)
+quant(?)</t>
+  </si>
+  <si>
+    <t>threading</t>
+  </si>
+  <si>
+    <t>scripting , git</t>
+  </si>
+  <si>
+    <t>poor. 
+Lower MV</t>
+  </si>
+  <si>
+    <t>Regulation
+-driven</t>
+  </si>
+  <si>
+    <t>6 unknown</t>
+  </si>
+  <si>
+    <t>mainstream? how many jobs now?</t>
+  </si>
+  <si>
+    <t>(LG2) how many candidates</t>
+  </si>
+  <si>
+    <t>longevity of domain / skill</t>
+  </si>
+  <si>
+    <t>complexity # theoretical</t>
+  </si>
+  <si>
+    <t>curve building # MC is similar</t>
   </si>
 </sst>
 </file>
@@ -289,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,9 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +327,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L22"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -627,446 +648,483 @@
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="K15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="M15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="6">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>rare</t>
   </si>
@@ -166,9 +166,6 @@
     <t xml:space="preserve">mkt depth </t>
   </si>
   <si>
-    <t>my candidacy</t>
-  </si>
-  <si>
     <t>sometimes complex</t>
   </si>
   <si>
@@ -218,17 +215,24 @@
   </si>
   <si>
     <t>curve building # MC is similar</t>
+  </si>
+  <si>
+    <t>%%IV competence</t>
+  </si>
+  <si>
+    <t>6 # competitors
+ r strong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +240,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,64 +644,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="6" customHeight="1"/>
+    <row r="2" spans="2:13" ht="79.5" customHeight="1">
       <c r="B2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -712,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5">
         <v>6</v>
@@ -730,7 +737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
@@ -746,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="5">
         <v>7</v>
@@ -764,7 +771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="51.75">
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
@@ -772,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -782,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>9</v>
@@ -797,10 +804,10 @@
         <v>33</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="51.75">
       <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
@@ -816,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="5">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>10</v>
@@ -832,12 +839,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="34.5">
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>43</v>
@@ -850,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="5">
         <v>4</v>
@@ -868,7 +875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="34.5">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>26</v>
@@ -884,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5">
         <v>7</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>27</v>
@@ -900,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -914,7 +921,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="6" customHeight="1">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -928,7 +935,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="36.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
@@ -946,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="5">
         <v>8</v>
@@ -964,7 +971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -990,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1030,7 +1037,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>45</v>
@@ -1063,10 +1070,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
@@ -1090,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1104,7 +1111,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1118,7 +1125,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1138,7 +1145,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1150,7 +1157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>rare</t>
   </si>
@@ -217,22 +217,31 @@
     <t>curve building # MC is similar</t>
   </si>
   <si>
-    <t>%%IV competence</t>
-  </si>
-  <si>
     <t>6 # competitors
  r strong</t>
+  </si>
+  <si>
+    <t>%%IV strength</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lowLevel IV topics</t>
+  </si>
+  <si>
+    <t>threading IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -240,7 +249,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -644,66 +653,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1"/>
-    <row r="2" spans="2:13" ht="79.5" customHeight="1">
+    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>34</v>
@@ -711,427 +721,440 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="5">
+      <c r="H3" s="5">
         <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="5">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="51.75">
+    <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="51.75">
+    <row r="6" spans="2:13" ht="69" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="34.5">
+    <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="34.5">
-      <c r="B8" s="4"/>
+    <row r="8" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="5">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" ht="6" customHeight="1">
+    <row r="10" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="2:13" ht="36.75" customHeight="1">
+    <row r="11" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5">
-        <v>8</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>30</v>
+      <c r="L11" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="M13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>15</v>
+      <c r="L15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5">
-        <v>4</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,7 +1168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1157,7 +1180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>rare</t>
   </si>
@@ -69,9 +69,6 @@
     <t>nacent</t>
   </si>
   <si>
-    <t>algo trading, mkt-making +  event-driven pretrade pricing</t>
-  </si>
-  <si>
     <t>infeasible</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>soft mkt data #curve building, mostly in ibanks</t>
-  </si>
-  <si>
-    <t>drv pricing/risk analytics, mostly in ibanks</t>
   </si>
   <si>
     <t>not theoretical</t>
@@ -115,9 +109,6 @@
     <t>slowly catching on</t>
   </si>
   <si>
-    <t>bond math</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>mkt data,socket…</t>
   </si>
   <si>
-    <t>FIX + connectivity + OMS#Kenny</t>
-  </si>
-  <si>
     <t>reasonable</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>theoretical</t>
   </si>
   <si>
-    <t>3 self-study</t>
-  </si>
-  <si>
     <t>reasonable?</t>
   </si>
   <si>
@@ -164,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">mkt depth </t>
-  </si>
-  <si>
-    <t>sometimes complex</t>
   </si>
   <si>
     <t>quant</t>
@@ -199,9 +181,6 @@
 -driven</t>
   </si>
   <si>
-    <t>6 unknown</t>
-  </si>
-  <si>
     <t>mainstream? how many jobs now?</t>
   </si>
   <si>
@@ -217,10 +196,6 @@
     <t>curve building # MC is similar</t>
   </si>
   <si>
-    <t>6 # competitors
- r strong</t>
-  </si>
-  <si>
     <t>%%IV strength</t>
   </si>
   <si>
@@ -231,13 +206,34 @@
   </si>
   <si>
     <t>threading IV</t>
+  </si>
+  <si>
+    <t>0 self-study</t>
+  </si>
+  <si>
+    <t>3 unknown</t>
+  </si>
+  <si>
+    <t>drv pricing/risk analytics # ibank-only</t>
+  </si>
+  <si>
+    <t>bond math #always a secondary skill</t>
+  </si>
+  <si>
+    <t>FIX + connectivity + OMS #Kenny</t>
+  </si>
+  <si>
+    <t>3 # competitors too strong</t>
+  </si>
+  <si>
+    <t>algo trading #event-driven quote pricing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +270,12 @@
       <u/>
       <sz val="13"/>
       <color theme="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -346,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -677,37 +679,37 @@
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -716,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -728,13 +730,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>9</v>
@@ -746,14 +748,16 @@
         <v>1</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -764,13 +768,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>8</v>
@@ -782,18 +786,18 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -802,16 +806,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>9</v>
@@ -820,12 +824,12 @@
         <v>1</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="69" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -836,16 +840,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>10</v>
@@ -853,8 +857,8 @@
       <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>17</v>
+      <c r="M6" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
@@ -862,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -874,252 +878,252 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="5">
-        <v>8</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <v>4</v>
-      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
@@ -1135,26 +1139,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>rare</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>algo trading #event-driven quote pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>churn?</t>
+  </si>
+  <si>
+    <t>common web+db apps in banks #PWM…</t>
   </si>
 </sst>
 </file>
@@ -653,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M21"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -913,217 +925,241 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <v>4</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
@@ -1139,12 +1175,26 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>rare</t>
   </si>
@@ -238,7 +238,10 @@
     <t>churn?</t>
   </si>
   <si>
-    <t>common web+db apps in banks #PWM…</t>
+    <t>common web+db apps in banks #PWM,spring…</t>
+  </si>
+  <si>
+    <t>low MV</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -954,7 +957,7 @@
         <v>71</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>1</v>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>rare</t>
   </si>
@@ -160,9 +160,6 @@
     <t>:(</t>
   </si>
   <si>
-    <t>risk sys in big ibanks #maybe math-lite</t>
-  </si>
-  <si>
     <t>java, SQL(?)
 quant(?)</t>
   </si>
@@ -242,6 +239,12 @@
   </si>
   <si>
     <t>low MV</t>
+  </si>
+  <si>
+    <t>risk sys in big ibanks #probably math-lite</t>
+  </si>
+  <si>
+    <t>low?</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -694,16 +697,16 @@
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>7</v>
@@ -712,19 +715,19 @@
         <v>45</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -801,12 +804,12 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -818,19 +821,19 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>9</v>
@@ -839,12 +842,12 @@
         <v>1</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -858,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>35</v>
@@ -873,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
@@ -893,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
@@ -911,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -930,10 +933,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -945,25 +948,25 @@
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1001,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -1058,7 +1061,7 @@
     </row>
     <row r="13" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>24</v>
@@ -1071,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5">
         <v>4</v>
@@ -1081,7 +1084,7 @@
         <v>27</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>25</v>
@@ -1122,7 +1125,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>19</v>
@@ -1137,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -208,9 +208,6 @@
     <t>0 self-study</t>
   </si>
   <si>
-    <t>3 unknown</t>
-  </si>
-  <si>
     <t>drv pricing/risk analytics # ibank-only</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>FIX + connectivity + OMS #Kenny</t>
   </si>
   <si>
-    <t>3 # competitors too strong</t>
-  </si>
-  <si>
     <t>algo trading #event-driven quote pricing</t>
   </si>
   <si>
@@ -245,6 +239,12 @@
   </si>
   <si>
     <t>low?</t>
+  </si>
+  <si>
+    <t>?good?</t>
+  </si>
+  <si>
+    <t>2 # competitors too strong</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
@@ -821,13 +821,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>38</v>
@@ -836,13 +836,13 @@
         <v>51</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>35</v>
@@ -872,11 +872,11 @@
       <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>10</v>
+      <c r="L6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
@@ -914,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -948,25 +948,25 @@
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>rare</t>
   </si>
@@ -81,13 +81,7 @@
     <t>mostly jargons</t>
   </si>
   <si>
-    <t>diverse :(</t>
-  </si>
-  <si>
     <t>real time risk, mostly in banks</t>
-  </si>
-  <si>
-    <t>soft mkt data #curve building, mostly in ibanks</t>
   </si>
   <si>
     <t>not theoretical</t>
@@ -115,9 +109,6 @@
     <t>some but no theoretical</t>
   </si>
   <si>
-    <t>growing but niche</t>
-  </si>
-  <si>
     <t>mkt data,socket…</t>
   </si>
   <si>
@@ -140,12 +131,6 @@
   </si>
   <si>
     <t>theoretical</t>
-  </si>
-  <si>
-    <t>reasonable?</t>
-  </si>
-  <si>
-    <t>declining slightly</t>
   </si>
   <si>
     <t xml:space="preserve">mkt depth </t>
@@ -190,9 +175,6 @@
     <t>complexity # theoretical</t>
   </si>
   <si>
-    <t>curve building # MC is similar</t>
-  </si>
-  <si>
     <t>%%IV strength</t>
   </si>
   <si>
@@ -245,6 +227,39 @@
   </si>
   <si>
     <t>2 # competitors too strong</t>
+  </si>
+  <si>
+    <t>conclusion based on %%xp</t>
+  </si>
+  <si>
+    <t>no xp</t>
+  </si>
+  <si>
+    <t>robust, 
+growing but niche</t>
+  </si>
+  <si>
+    <t>declining
+ slightly</t>
+  </si>
+  <si>
+    <t>too niche</t>
+  </si>
+  <si>
+    <t>no personal adv</t>
+  </si>
+  <si>
+    <t>crowded. No 
+personal adv</t>
+  </si>
+  <si>
+    <t>some std skillset</t>
+  </si>
+  <si>
+    <t>soft mkt data #curve building #ibanks #MC is similar</t>
+  </si>
+  <si>
+    <t>limited xp</t>
   </si>
 </sst>
 </file>
@@ -340,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,6 +383,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -690,53 +711,57 @@
     <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -748,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H3" s="5">
         <v>3</v>
@@ -766,10 +791,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -786,13 +814,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5">
         <v>4</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>8</v>
@@ -804,50 +832,56 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="51.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="51.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="51.75" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -858,16 +892,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>10</v>
@@ -875,16 +909,19 @@
       <c r="L6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="M6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -896,28 +933,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -930,13 +970,14 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -948,28 +989,31 @@
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -977,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>0</v>
@@ -986,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5">
         <v>5</v>
@@ -994,8 +1038,8 @@
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
+      <c r="J10" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>10</v>
@@ -1003,11 +1047,14 @@
       <c r="L10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1030,41 +1077,57 @@
         <v>11</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="34.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -1074,26 +1137,29 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5">
         <v>4</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1106,68 +1172,51 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1180,27 +1229,15 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>rare</t>
   </si>
@@ -246,9 +246,6 @@
     <t>too niche</t>
   </si>
   <si>
-    <t>no personal adv</t>
-  </si>
-  <si>
     <t>crowded. No 
 personal adv</t>
   </si>
@@ -260,13 +257,23 @@
   </si>
   <si>
     <t>limited xp</t>
+  </si>
+  <si>
+    <t>defensible</t>
+  </si>
+  <si>
+    <t>too niche but
+ defensible</t>
+  </si>
+  <si>
+    <t>not keen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,32 +290,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -357,39 +358,39 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -694,550 +695,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="0.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="L4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="2:14" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="N12" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="5">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>rare</t>
   </si>
@@ -106,9 +106,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>some but no theoretical</t>
-  </si>
-  <si>
     <t>mkt data,socket…</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>theoretical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkt depth </t>
   </si>
   <si>
     <t>quant</t>
@@ -172,12 +166,6 @@
     <t>longevity of domain / skill</t>
   </si>
   <si>
-    <t>complexity # theoretical</t>
-  </si>
-  <si>
-    <t>%%IV strength</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -196,12 +184,6 @@
     <t>bond math #always a secondary skill</t>
   </si>
   <si>
-    <t>FIX + connectivity + OMS #Kenny</t>
-  </si>
-  <si>
-    <t>algo trading #event-driven quote pricing</t>
-  </si>
-  <si>
     <t xml:space="preserve">no </t>
   </si>
   <si>
@@ -227,9 +209,6 @@
   </si>
   <si>
     <t>2 # competitors too strong</t>
-  </si>
-  <si>
-    <t>conclusion based on %%xp</t>
   </si>
   <si>
     <t>no xp</t>
@@ -253,9 +232,6 @@
     <t>some std skillset</t>
   </si>
   <si>
-    <t>soft mkt data #curve building #ibanks #MC is similar</t>
-  </si>
-  <si>
     <t>limited xp</t>
   </si>
   <si>
@@ -267,13 +243,58 @@
   </si>
   <si>
     <t>not keen</t>
+  </si>
+  <si>
+    <t>other complexity # theoretical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no theoretical</t>
+  </si>
+  <si>
+    <t>infras-
+tructure</t>
+  </si>
+  <si>
+    <t>conclusion { xp</t>
+  </si>
+  <si>
+    <t>%%IV strength 1-5</t>
+  </si>
+  <si>
+    <t>math complexity</t>
+  </si>
+  <si>
+    <t>(LG2)premium # additional dimension</t>
+  </si>
+  <si>
+    <t>very poor</t>
+  </si>
+  <si>
+    <t>too elitist</t>
+  </si>
+  <si>
+    <t>soft mkt data #curve building 
+#ibanks #MC is similar</t>
+  </si>
+  <si>
+    <t>10% only</t>
+  </si>
+  <si>
+    <t>FIX + connectivity + OMS #Kenny, 95G</t>
+  </si>
+  <si>
+    <t>trading algo implementation 
+#citi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD=mkt depth </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +334,20 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +357,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -391,6 +448,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,354 +768,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="7.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="J4" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>72</v>
+      <c r="J10" s="21">
+        <v>0.1</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>10</v>
@@ -1048,68 +1171,76 @@
       <c r="L10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1117,128 +1248,147 @@
         <v>10</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
+      <c r="E15" s="7">
+        <v>1</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="7">
-        <v>1</v>
+      <c r="H15" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E21" s="15"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/%%marketable_tech_xp.xlsx
+++ b/cv/%%marketable_tech_xp.xlsx
@@ -193,12 +193,6 @@
     <t>churn?</t>
   </si>
   <si>
-    <t>common web+db apps in banks #PWM,spring…</t>
-  </si>
-  <si>
-    <t>low MV</t>
-  </si>
-  <si>
     <t>risk sys in big ibanks #probably math-lite</t>
   </si>
   <si>
@@ -225,10 +219,6 @@
     <t>too niche</t>
   </si>
   <si>
-    <t>crowded. No 
-personal adv</t>
-  </si>
-  <si>
     <t>some std skillset</t>
   </si>
   <si>
@@ -288,6 +278,17 @@
   </si>
   <si>
     <t xml:space="preserve">MD=mkt depth </t>
+  </si>
+  <si>
+    <t>No 
+personal adv</t>
+  </si>
+  <si>
+    <t>sometimes
+ low MV</t>
+  </si>
+  <si>
+    <t>web+db apps across industries #PWM,spring…</t>
   </si>
 </sst>
 </file>
@@ -770,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,7 +787,7 @@
     <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" style="2" customWidth="1"/>
@@ -800,13 +801,13 @@
         <v>49</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>38</v>
@@ -821,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>33</v>
@@ -836,7 +837,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -848,7 +849,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7">
         <v>3</v>
@@ -881,7 +882,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>29</v>
@@ -892,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7">
@@ -926,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>53</v>
@@ -940,7 +941,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>28</v>
@@ -955,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -964,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>34</v>
@@ -973,10 +974,10 @@
         <v>44</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
@@ -1020,10 +1021,10 @@
         <v>35</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
@@ -1037,22 +1038,22 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>10</v>
@@ -1064,13 +1065,13 @@
         <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="P7" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1121,8 +1122,8 @@
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>58</v>
+      <c r="L9" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>14</v>
@@ -1131,10 +1132,10 @@
         <v>56</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>52</v>
@@ -1211,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>12</v>
@@ -1248,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="33" x14ac:dyDescent="0.3">
@@ -1295,7 +1296,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>24</v>
@@ -1341,7 +1342,7 @@
         <v>27</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>21</v>
